--- a/data/outputs/management_elsevier/37.xlsx
+++ b/data/outputs/management_elsevier/37.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS76"/>
+  <dimension ref="A1:BU76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -923,6 +933,12 @@
           <t>2-s2.0-84941730985</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1126,6 +1142,12 @@
           <t>2-s2.0-84941748927</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>1475</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1329,6 +1351,12 @@
           <t>2-s2.0-84941742875</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>951</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1532,6 +1560,12 @@
           <t>2-s2.0-84941736412</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1506</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1753,6 +1787,12 @@
           <t>2-s2.0-84941730931</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>2060</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1971,6 +2011,12 @@
         <is>
           <t>2-s2.0-84941735597</t>
         </is>
+      </c>
+      <c r="BT7" t="n">
+        <v>2490</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -2179,6 +2225,12 @@
           <t>2-s2.0-84946163554</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>1373</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2391,6 +2443,12 @@
         <is>
           <t>2-s2.0-84941732451</t>
         </is>
+      </c>
+      <c r="BT9" t="n">
+        <v>3465</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="10">
@@ -2603,6 +2661,12 @@
           <t>2-s2.0-84941734341</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1261</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2816,6 +2880,12 @@
           <t>2-s2.0-84941625519</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>5783</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3031,6 +3101,12 @@
           <t>2-s2.0-84941745802</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>14812</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3246,6 +3322,12 @@
           <t>2-s2.0-84941746767</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>3384</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3472,6 +3554,12 @@
         <is>
           <t>2-s2.0-84941644430</t>
         </is>
+      </c>
+      <c r="BT14" t="n">
+        <v>1588</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -3680,6 +3768,12 @@
           <t>2-s2.0-84941635219</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>3045</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3891,6 +3985,12 @@
           <t>2-s2.0-84941627139</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>4967</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4113,6 +4213,12 @@
         <is>
           <t>2-s2.0-84941735189</t>
         </is>
+      </c>
+      <c r="BT17" t="n">
+        <v>4358</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -4321,6 +4427,12 @@
           <t>2-s2.0-84941730910</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>2319</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4535,6 +4647,12 @@
         <is>
           <t>2-s2.0-84941747459</t>
         </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>3383</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -4743,6 +4861,12 @@
           <t>2-s2.0-84941734486</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>3386</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4954,6 +5078,12 @@
           <t>2-s2.0-84941730502</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>1981</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5166,6 +5296,12 @@
         <is>
           <t>2-s2.0-84941740062</t>
         </is>
+      </c>
+      <c r="BT22" t="n">
+        <v>1214</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -5374,6 +5510,12 @@
           <t>2-s2.0-84941749224</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>2992</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5585,6 +5727,12 @@
           <t>2-s2.0-84941740658</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>4240</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5792,6 +5940,12 @@
           <t>2-s2.0-84930039676</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>1694</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5999,6 +6153,12 @@
           <t>2-s2.0-84930046817</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>1520</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6206,6 +6366,12 @@
           <t>2-s2.0-84930047198</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>2391</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6413,6 +6579,12 @@
           <t>2-s2.0-85027949755</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>2654</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6623,6 +6795,12 @@
         <is>
           <t>2-s2.0-84930035140</t>
         </is>
+      </c>
+      <c r="BT29" t="n">
+        <v>5937</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -6831,6 +7009,12 @@
           <t>2-s2.0-84930027275</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>1786</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7046,6 +7230,12 @@
           <t>2-s2.0-84930039520</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>2210</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7261,6 +7451,12 @@
           <t>2-s2.0-84930039667</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>2856</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7474,6 +7670,12 @@
           <t>2-s2.0-84930040237</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>2415</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7693,6 +7895,12 @@
           <t>2-s2.0-84930041853</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>5624</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7914,6 +8122,12 @@
           <t>2-s2.0-84930040551</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>3584</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8125,6 +8339,12 @@
           <t>2-s2.0-84930046583</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>3817</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8339,6 +8559,12 @@
         <is>
           <t>2-s2.0-84930046973</t>
         </is>
+      </c>
+      <c r="BT37" t="n">
+        <v>2623</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -8547,6 +8773,12 @@
           <t>2-s2.0-85028231972</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>2148</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8756,6 +8988,12 @@
           <t>2-s2.0-85028228203</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>4120</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8983,6 +9221,12 @@
           <t>2-s2.0-84930046196</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>9056</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9195,6 +9439,12 @@
         <is>
           <t>2-s2.0-84930016946</t>
         </is>
+      </c>
+      <c r="BT41" t="n">
+        <v>4915</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="42">
@@ -9401,6 +9651,12 @@
           <t>2-s2.0-84924460268</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>1416</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9604,6 +9860,12 @@
           <t>2-s2.0-84924479371</t>
         </is>
       </c>
+      <c r="BT43" t="n">
+        <v>2975</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9807,6 +10069,12 @@
           <t>2-s2.0-84924430929</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>2280</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10023,6 +10291,12 @@
         <is>
           <t>2-s2.0-84924430805</t>
         </is>
+      </c>
+      <c r="BT45" t="n">
+        <v>4118</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="46">
@@ -10235,6 +10509,12 @@
           <t>2-s2.0-84924460012</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>2583</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10448,6 +10728,12 @@
           <t>2-s2.0-84921978818</t>
         </is>
       </c>
+      <c r="BT47" t="n">
+        <v>5907</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10655,6 +10941,12 @@
           <t>2-s2.0-84924341449</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>2499</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10862,6 +11154,12 @@
           <t>2-s2.0-84924478740</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>2241</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11069,6 +11367,12 @@
           <t>2-s2.0-84924435269</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>2541</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11283,6 +11587,12 @@
         <is>
           <t>2-s2.0-84924508336</t>
         </is>
+      </c>
+      <c r="BT51" t="n">
+        <v>2282</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -11491,6 +11801,12 @@
           <t>2-s2.0-84924491605</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>2353</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11705,6 +12021,12 @@
         <is>
           <t>2-s2.0-84924296145</t>
         </is>
+      </c>
+      <c r="BT53" t="n">
+        <v>1741</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="54">
@@ -11914,6 +12236,12 @@
         <is>
           <t>2-s2.0-84924485445</t>
         </is>
+      </c>
+      <c r="BT54" t="n">
+        <v>2437</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="55">
@@ -12106,6 +12434,12 @@
           <t>2-s2.0-84919673473</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>703</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12313,6 +12647,12 @@
           <t>2-s2.0-84919664259</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>13547</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12531,6 +12871,12 @@
         <is>
           <t>2-s2.0-84919631173</t>
         </is>
+      </c>
+      <c r="BT57" t="n">
+        <v>2487</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="58">
@@ -12739,6 +13085,12 @@
           <t>2-s2.0-84919668163</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>4279</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12946,6 +13298,12 @@
           <t>2-s2.0-84919692361</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>4811</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13160,6 +13518,12 @@
         <is>
           <t>2-s2.0-84919648188</t>
         </is>
+      </c>
+      <c r="BT60" t="n">
+        <v>2902</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="61">
@@ -13368,6 +13732,12 @@
           <t>2-s2.0-84919694598</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>2512</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13583,6 +13953,12 @@
           <t>2-s2.0-84919651868</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>5837</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13793,6 +14169,12 @@
         <is>
           <t>2-s2.0-84919682500</t>
         </is>
+      </c>
+      <c r="BT63" t="n">
+        <v>8981</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="64">
@@ -14001,6 +14383,12 @@
           <t>2-s2.0-84919697011</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>1006</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14217,6 +14605,12 @@
         <is>
           <t>2-s2.0-84919643092</t>
         </is>
+      </c>
+      <c r="BT65" t="n">
+        <v>3516</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="66">
@@ -14425,6 +14819,12 @@
           <t>2-s2.0-84919662931</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>1661</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14632,6 +15032,12 @@
           <t>2-s2.0-84919654494</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>1688</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14849,6 +15255,12 @@
           <t>2-s2.0-84919679621</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>2416</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15059,6 +15471,12 @@
         <is>
           <t>2-s2.0-84919674651</t>
         </is>
+      </c>
+      <c r="BT69" t="n">
+        <v>3103</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="70">
@@ -15267,6 +15685,12 @@
           <t>2-s2.0-84919631063</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>1507</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15484,6 +15908,12 @@
           <t>2-s2.0-84919624114</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>5484</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15695,6 +16125,12 @@
           <t>2-s2.0-84919673686</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>4473</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15905,6 +16341,12 @@
         <is>
           <t>2-s2.0-84919697369</t>
         </is>
+      </c>
+      <c r="BT73" t="n">
+        <v>4272</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="74">
@@ -16113,6 +16555,12 @@
           <t>2-s2.0-84919703217</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>2956</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16320,6 +16768,12 @@
           <t>2-s2.0-84919701056</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>3413</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16531,6 +16985,12 @@
           <t>2-s2.0-84919659141</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>2069</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
